--- a/Dev-Ops/Documents.xlsx
+++ b/Dev-Ops/Documents.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\my-work-space\My-Documents\Dev-Ops\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C74BFC93-E9AD-40A3-93F9-3645AE14B869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28695" windowHeight="13530" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -29,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -1444,7 +1438,129 @@
 Viết được dockerfile và docker-compose cơ bản</t>
   </si>
   <si>
+    <t>CONTAINER</t>
+  </si>
+  <si>
+    <t>Container</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Container is a standard unit of software that packages up code and all its dependencies so the application runs quickly and reliably from one computing environment to another
+ + Lightweight: Containers share the machine’s OS system kernel and do not require an OS per application, driving higher server efficiencies and reducing server and licensing costs
+ + Modularity and Scalability: You can deploy services in a distributed manner using one or more containers. They allow applications to be broken down into smaller, manageable pieces (known as microservices) that can be created, updated, and scaled individually
+ + Consistency across environments: Containers include both application and dependencies, isolating the application from network topology, storage, security, and management policies that can differ from development to test to production environment
+ + Portability: You can create containers with different technologies (Java, .NET, Node.js etc.), on different platforms (Windows, Linux etc.) and on different clouds</t>
+  </si>
+  <si>
+    <t>Containers are not virtualization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Virtual machines provide virtual hardware (or hardware on which an operating system and other programs can be installed). They take a long time (often minutes) to create and require significant resource overhead because they run a whole operating system in addition to the software you want to use. Virtual machines can perform optimally once everything is up and running, but the startup delays make them a poor fit for just-in-time or reactive deployment scenarios.
+ - Docker containers don’t use any hardware virtualization. Programs running inside Docker containers interface directly with the host’s Linux kernel</t>
+  </si>
+  <si>
+    <t>Containers for isolation</t>
+  </si>
+  <si>
+    <t>Shipping containers</t>
+  </si>
+  <si>
     <t>DOCKER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Docker </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Docker is an open source project for building, shipping, and running programs.
+ - It is a commandline program, a background process, and a set of remote services that take a logistical
+approach to solving common software problems and simplifying your experience installing, running, publishing, and removing software. It accomplishes this by using an operating system technology called containers.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Detach mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (--detach / -d): When you start a Docker container in detached mode, the Docker container will run in the background, and the control is given back to the terminal.
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Attach mode</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Attaching to a Docker container means that you are linking your input, output, and error stream to a running Docker container. When you start a Docker container without the -d option or use the docker attach command, you're "attaching" to it. Anything that the application inside the Docker container sends to standard output (like log messages or other console output) will be displayed in your terminal. If the application is designed to accept input from standard input, you can also interact with it from your terminal
+ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Interactive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Interactive flags, when you started this container, you specified the program to run inside the container</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>PID namespace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+ - PID namespace is a set of unique numbers that identify processes. Linux provides tools to create multiple PID namespaces. Each namespace has a complete set of possible PIDs. This means that each PID namespace will contain its own PID 1, 2, 3, and so on
+ - Docker creates a new PID name space for each container by default. A container’s PID namespace isolates processes in that container from processes in other containers
+ - Without a PID namespace, the processes running inside a container would share the same ID space as those in other containers or on the host. A process in a container would be able to determine what other processes were running on the host machine</t>
+    </r>
   </si>
   <si>
     <t>Docker images</t>
@@ -1453,7 +1569,7 @@
     <t xml:space="preserve"> - An image is a file that represents a packaged application with all the dependencies needed to run correctly. In other words, we could say that a Docker image is like a Java class.
  - Images are built as a series of layers. Layers are assembled on top of one another. So, what is a layer? Simply put, a layer is an image.
  - Let’s say we want to create a Docker image of a Hello World Java application. The first thing we need to think about is what does our application need. To start, it is a Java application, so we will need a JVM. OK, this seems easy, but what does a JVM need to run? It needs an Operating System. Therefore, our Docker image will have an Operating System layer, a JVM, and our Hello World application.
-</t>
+ - Docker image is a bundled snapshot of all the files that should be available to a program running inside a container</t>
   </si>
   <si>
     <t>Docker container</t>
@@ -1466,7 +1582,10 @@
   + docker pause &lt;container_id&gt;
   + docker unpause &lt;container_id&gt;
   + docker stop &lt;container_id&gt;
-  + docker container rm &lt;container_id&gt;</t>
+  + docker container rm &lt;container_id&gt;
+ - Unlike virtual machines, Docker containers don’t use any hardware virtualization. Programs running inside Docker containers interface directly with the host’s Linux
+kernel
+ - Many programs can run in isolation without running redundant operating systems or suffering the delay of full boot sequences. This is an important distinction. Docker is not a hardware virtualization technology. Instead, it helps you use the container technology already built into your operating system kernel</t>
   </si>
   <si>
     <t>Tag</t>
@@ -1488,13 +1607,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Bridge
  - This is default
  - containers running in isolation to connect and communicate with each other. Since containers run in isolation, the bridge network solves the port conflict problem
@@ -1516,13 +1628,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Host
  - host drivers use the networking provided by the host machine. It removes network isolation between the container and the host machine where Docker is running
  - </t>
@@ -1556,13 +1661,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> - Why: 
    + all files created inside a container are stored on a writable container layer
    + data doesn't persist when that container no longer exists, and it can be difficult to get the data out of the container if another process needs it.
@@ -1764,14 +1862,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Volumes</t>
     </r>
     <r>
@@ -1858,14 +1948,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Bind mounts</t>
     </r>
     <r>
@@ -1907,14 +1989,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>tmpfs mounts</t>
     </r>
     <r>
@@ -1973,13 +2047,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">
  - </t>
     </r>
@@ -2054,73 +2121,6 @@
   </si>
   <si>
     <t>Logging, Log Files</t>
-  </si>
-  <si>
-    <t>DOCKER SWARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Swarm mode </t>
-  </si>
-  <si>
-    <t>server clustering</t>
-  </si>
-  <si>
-    <t>orchestrate</t>
-  </si>
-  <si>
-    <t>docker swarm, docker node, docker service, docker stack, docker secret</t>
-  </si>
-  <si>
-    <t>network overlay 
- - container - to - container traffic inside a single Swarm
- - Option IPSec encryption on network creation
- - Each service can be connected to multiple networks</t>
-  </si>
-  <si>
-    <t>Routing Mesh 
- - Routes ingeress (incoming) packets for a Service to proper Task 
- - Spans all nodes in Swarm
- - Uses IPVS from Linux Kernel
- - Load balances Swarm Services across their Tasks
- - Container - to - container in a Overlay network (uses VIP)
- - External traffic incoming to published port (all nodes listen)
-Routing Mesh Cont</t>
-  </si>
-  <si>
-    <t>KUBERNETES</t>
-  </si>
-  <si>
-    <t>Pod: 
- - One or more containers running together on one Node
- - Basic unit of deployment. Containers are always in pods
- - really just a Kubernetes concept and it's unique to Kubernetes
- - Wraps around one or more containers that all shares the same IP addres and the same deployment mechanism
- - All containers in a pod will deploy together on the same node</t>
-  </si>
-  <si>
-    <t>Controller
- - For creating/updating pods and other objects
- - Many types of Controllers incL Deployment, ReplicaSet, StatefulSet, DaemonSet, Job, CronJob, etc</t>
-  </si>
-  <si>
-    <t>Service
- - Network endpoint to connect to a pod</t>
-  </si>
-  <si>
-    <t>Name space: Filtered group of objects in cluster</t>
-  </si>
-  <si>
-    <t>Secrets, ConfigMaps,…</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> + kubectl run (single pod per command since 1.18)
- + kubectl create (create some resource via CLI or YAML)
- + kubectl apply (create/update anything via YAML)
- + alias kubectl=microk8s.kubectl (add alias)
- + kubectl run my-nginx --image nginx (run pod)
- + kubectl get pods (Get list the pod)
- + kubectl get all (See all objects)
- + kubectl create deployment my-nginx --image nginx (create a deployment of the nginx web server)</t>
   </si>
   <si>
     <t>Cho biết thêm về CICD?</t>
@@ -2168,20 +2168,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2193,7 +2193,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2202,6 +2201,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -2245,9 +2252,130 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2275,12 +2403,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2294,8 +2428,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2303,14 +2617,247 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2318,35 +2865,74 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2365,56 +2951,78 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="48" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30"/>
+    <cellStyle name="Accent1" xfId="20" builtinId="29"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="36" builtinId="16"/>
+    <cellStyle name="Comma [0]" xfId="37" builtinId="6"/>
+    <cellStyle name="20% - Accent6" xfId="38" builtinId="50"/>
+    <cellStyle name="Title" xfId="39" builtinId="15"/>
+    <cellStyle name="Currency [0]" xfId="40" builtinId="7"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="43" builtinId="17"/>
+    <cellStyle name="Comma" xfId="44" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="45" builtinId="23"/>
+    <cellStyle name="60% - Accent3" xfId="46" builtinId="40"/>
+    <cellStyle name="Percent" xfId="47" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2430,19 +3038,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Ảnh 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Ảnh 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2474,19 +3076,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Ảnh 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Ảnh 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2518,19 +3114,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Ảnh 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Ảnh 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2802,75 +3392,75 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView topLeftCell="B9" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="39.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="95.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="58.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.14" style="1"/>
+    <col min="2" max="2" width="39.5733333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="95.5733333333333" style="1" customWidth="1"/>
+    <col min="4" max="4" width="60.7133333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="58.8533333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="50" style="1" customWidth="1"/>
-    <col min="7" max="7" width="49.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="49.7133333333333" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="90">
+    <row r="1" ht="76.5" spans="1:3">
       <c r="A1" s="1">
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="36" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="75">
+    <row r="2" ht="63.75" spans="1:3">
       <c r="A2" s="1">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="36" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="45">
+    <row r="3" ht="38.25" spans="1:3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="36" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="45">
+    <row r="4" ht="38.25" spans="1:3">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="37" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="240">
+    <row r="5" ht="178.5" spans="1:3">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -2881,51 +3471,51 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="30">
+    <row r="6" ht="25.5" spans="1:3">
       <c r="A6" s="1">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="37" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="300">
+    <row r="7" ht="229.5" spans="1:3">
       <c r="A7" s="1">
         <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="33" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="245.25" customHeight="1">
+    <row r="8" ht="245.25" customHeight="1" spans="1:3">
       <c r="A8" s="1">
         <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="223.5" customHeight="1">
+    <row r="9" ht="223.5" customHeight="1" spans="1:3">
       <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="300">
+    <row r="10" ht="204" spans="1:4">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -2935,11 +3525,11 @@
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="30">
+    <row r="11" ht="25.5" spans="2:3">
       <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
@@ -2947,7 +3537,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="150">
+    <row r="12" ht="102" spans="2:3">
       <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
@@ -2955,7 +3545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="180">
+    <row r="13" ht="140.25" spans="2:3">
       <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
@@ -2963,14 +3553,14 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="288.75" customHeight="1">
+    <row r="14" ht="288.75" customHeight="1" spans="2:7">
       <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="33" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -2983,7 +3573,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="60">
+    <row r="15" ht="38.25" spans="2:3">
       <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
@@ -2991,73 +3581,77 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="240.75" customHeight="1">
+    <row r="16" ht="240.75" customHeight="1" spans="2:2">
       <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="180">
+    <row r="17" ht="153" spans="2:3">
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="180">
+    <row r="18" ht="153" spans="2:3">
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="33" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId2" display="https://topdev.vn/blog/trien-khai-ci-cd-voi-gitlab/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId2"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="37.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="77.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="37.2866666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="77.4266666666667" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="135">
+    <row r="1" ht="89.25" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="37" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="210">
+    <row r="2" ht="178.5" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
@@ -3067,39 +3661,41 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="72.5703125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="139.5703125" customWidth="1"/>
+    <col min="1" max="1" width="72.5733333333333" style="24" customWidth="1"/>
+    <col min="2" max="2" width="139.573333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="26.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" ht="24" spans="1:2">
+      <c r="A1" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="23"/>
-    </row>
-    <row r="2" spans="1:2" ht="150">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="25"/>
+    </row>
+    <row r="2" ht="127.5" spans="1:2">
+      <c r="A2" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="26" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="24" t="s">
         <v>47</v>
       </c>
       <c r="B3" t="s">
@@ -3107,7 +3703,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="24" t="s">
         <v>49</v>
       </c>
       <c r="B4" t="s">
@@ -3115,239 +3711,233 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="26.25">
-      <c r="A8" s="24" t="s">
+    <row r="8" ht="24" spans="1:2">
+      <c r="A8" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="25"/>
-    </row>
-    <row r="9" spans="1:2" s="12" customFormat="1">
-      <c r="A9" s="14" t="s">
+      <c r="B8" s="28"/>
+    </row>
+    <row r="9" s="23" customFormat="1" spans="1:2">
+      <c r="A9" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="23" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="12" customFormat="1" ht="47.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" s="23" customFormat="1" ht="30" spans="1:2">
+      <c r="A10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="12" customFormat="1" ht="60">
-      <c r="A11" s="15" t="s">
+    <row r="11" s="23" customFormat="1" ht="51" spans="1:2">
+      <c r="A11" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="31" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="12" customFormat="1" ht="15">
-      <c r="A12" s="12" t="s">
+    <row r="12" s="23" customFormat="1" ht="12.75" spans="1:2">
+      <c r="A12" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="12" customFormat="1" ht="15">
-      <c r="A13" s="12" t="s">
+    <row r="13" s="23" customFormat="1" ht="12.75" spans="1:2">
+      <c r="A13" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="23" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="12" customFormat="1" ht="15">
-      <c r="A14" s="12" t="s">
+    <row r="14" s="23" customFormat="1" ht="12.75" spans="1:2">
+      <c r="A14" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="23" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="12" customFormat="1" ht="15">
-      <c r="A15" s="12" t="s">
+    <row r="15" s="23" customFormat="1" ht="12.75" spans="1:2">
+      <c r="A15" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="12" customFormat="1" ht="15">
-      <c r="A16" s="12" t="s">
+    <row r="16" s="23" customFormat="1" ht="12.75" spans="1:2">
+      <c r="A16" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="23" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="12" customFormat="1" ht="15">
-      <c r="A17" s="12" t="s">
+    <row r="17" s="23" customFormat="1" ht="12.75" spans="1:2">
+      <c r="A17" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="23" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="12" customFormat="1" ht="15">
-      <c r="A18" s="12" t="s">
+    <row r="18" s="23" customFormat="1" ht="12.75" spans="1:2">
+      <c r="A18" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="23" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="12" customFormat="1" ht="15">
-      <c r="A19" s="12" t="s">
+    <row r="19" s="23" customFormat="1" ht="12.75" spans="1:2">
+      <c r="A19" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="23" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="12" customFormat="1" ht="15">
-      <c r="A20" s="12" t="s">
+    <row r="20" s="23" customFormat="1" ht="12.75" spans="1:2">
+      <c r="A20" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="23" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="12" customFormat="1" ht="15">
-      <c r="A21" s="12" t="s">
+    <row r="21" s="23" customFormat="1" ht="12.75" spans="1:2">
+      <c r="A21" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="26.25">
-      <c r="A25" s="23" t="s">
+    <row r="25" ht="24" spans="1:2">
+      <c r="A25" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="23"/>
-    </row>
-    <row r="26" spans="1:2" ht="330">
-      <c r="A26" s="13" t="s">
+      <c r="B25" s="25"/>
+    </row>
+    <row r="26" ht="255" spans="1:2">
+      <c r="A26" s="24" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="B26" s="26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="120">
-      <c r="A27" s="13" t="s">
+    <row r="27" ht="89.25" spans="1:2">
+      <c r="A27" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="26" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="105">
-      <c r="A28" s="17" t="s">
+    <row r="28" ht="89.25" spans="1:2">
+      <c r="A28" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B28" s="26" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="B29" s="26" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="26" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30">
-      <c r="A31" s="13" t="s">
+    <row r="31" ht="25.5" spans="1:2">
+      <c r="A31" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="B31" s="26" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="24" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="7" t="s">
+      <c r="B32" s="26" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="45">
-      <c r="A33" s="13" t="s">
+    <row r="33" ht="38.25" spans="1:2">
+      <c r="A33" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B33" s="26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A34" s="26" t="s">
+    <row r="34" ht="15.75" customHeight="1" spans="1:2">
+      <c r="A34" s="24" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="7" t="s">
+      <c r="B34" s="26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A35" s="26"/>
-      <c r="B35" s="7" t="s">
+    <row r="35" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B35" s="26" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="7" t="s">
+    <row r="36" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B36" s="26" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A37" s="26"/>
+    <row r="37" ht="15.75" customHeight="1" spans="2:2">
       <c r="B37" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A38" s="26"/>
-      <c r="B38" s="7" t="s">
+    <row r="38" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B38" s="26" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A39" s="26"/>
+    <row r="39" ht="15.75" customHeight="1" spans="2:2">
       <c r="B39" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" customHeight="1">
-      <c r="A40" s="26"/>
-      <c r="B40" s="7" t="s">
+    <row r="40" ht="15.75" customHeight="1" spans="2:2">
+      <c r="B40" s="26" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="24" t="s">
         <v>105</v>
       </c>
       <c r="B41" t="s">
@@ -3362,35 +3952,39 @@
     <mergeCell ref="A34:A40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="60.42578125" customWidth="1"/>
+    <col min="2" max="2" width="60.4266666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
@@ -3415,335 +4009,349 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1"/>
-    <col min="2" max="2" width="49.140625" customWidth="1"/>
-    <col min="3" max="3" width="69.5703125" customWidth="1"/>
+    <col min="1" max="1" width="28.4266666666667" style="3" customWidth="1"/>
+    <col min="2" max="2" width="49.14" style="4" customWidth="1"/>
+    <col min="3" max="3" width="80.8" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" customHeight="1">
-      <c r="A1" s="3" t="s">
+    <row r="1" ht="24" spans="1:2">
+      <c r="A1" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="5"/>
-    </row>
-    <row r="3" spans="1:3" ht="180">
-      <c r="A3" s="27" t="s">
+    <row r="2" ht="153" spans="1:3">
+      <c r="A2" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C2" s="9" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="150">
-      <c r="A4" s="27"/>
-      <c r="B4" s="6" t="s">
+    <row r="3" ht="89.25" spans="1:3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C3" s="9" t="s">
         <v>117</v>
       </c>
     </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="9"/>
+    </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="27"/>
-      <c r="B5" t="s">
-        <v>118</v>
-      </c>
+      <c r="A5" s="7"/>
+      <c r="B5" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="27"/>
-      <c r="B6" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="27"/>
-      <c r="B7" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" ht="63.75" spans="1:3">
+      <c r="A7" s="11" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="90">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28" t="s">
+      <c r="B7" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C7" s="9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="165">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="7" t="s">
+    <row r="8" ht="127.5" spans="1:3">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="105">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="7" t="s">
+    <row r="9" ht="114.75" spans="1:3">
+      <c r="A9" s="11"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="14" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" t="s">
+    <row r="10" ht="127.5" spans="1:3">
+      <c r="A10" s="11"/>
+      <c r="B10" s="15" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="90">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="27"/>
-      <c r="B13" t="s">
+    <row r="11" ht="216.75" spans="1:3">
+      <c r="A11" s="16"/>
+      <c r="B11" s="15" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="270">
-      <c r="A14" s="27"/>
-      <c r="B14" s="29" t="s">
+      <c r="C11" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C14" s="7" t="s">
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="210">
-      <c r="A15" s="27"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="8" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="16"/>
+      <c r="B13" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="120">
-      <c r="A16" s="27"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="8" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="16"/>
+      <c r="B14" s="4" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="45">
-      <c r="A17" s="27"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="8" t="s">
+    <row r="15" ht="51" spans="1:3">
+      <c r="A15" s="16"/>
+      <c r="B15" s="17" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="90">
-      <c r="A18" s="27"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="7" t="s">
+      <c r="C15" s="9" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="27"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="27"/>
-      <c r="B20" s="9" t="s">
+    <row r="16" ht="102" spans="1:3">
+      <c r="A16" s="16"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="27"/>
-      <c r="B21" t="s">
+    <row r="17" ht="63.75" spans="1:3">
+      <c r="A17" s="16"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5"/>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="27" t="s">
+    <row r="18" spans="1:3">
+      <c r="A18" s="16"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="B24" t="s">
+    </row>
+    <row r="19" ht="63.75" spans="1:3">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="9" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="27"/>
-      <c r="B25" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="16"/>
+      <c r="B20" s="4" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="27"/>
-      <c r="B26" t="s">
+    <row r="21" ht="191.25" spans="1:3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="18" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="27"/>
-      <c r="B27" t="s">
+      <c r="C21" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="90">
-      <c r="A28" s="27"/>
-      <c r="B28" s="7" t="s">
+    <row r="22" ht="153" spans="1:3">
+      <c r="A22" s="16"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="14" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="180">
-      <c r="A29" s="27"/>
-      <c r="B29" s="7" t="s">
+    <row r="23" ht="102" spans="1:3">
+      <c r="A23" s="16"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="14" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="10"/>
-    </row>
-    <row r="31" spans="1:6" ht="180">
-      <c r="A31" s="27" t="s">
+    <row r="24" ht="38.25" spans="1:3">
+      <c r="A24" s="16"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="B31" s="7" t="s">
+    </row>
+    <row r="25" ht="63.75" spans="1:3">
+      <c r="A25" s="16"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:6" ht="75">
-      <c r="A32" s="27"/>
-      <c r="B32" s="7" t="s">
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="16"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="16"/>
+      <c r="B27" s="19" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="30">
-      <c r="A33" s="27"/>
-      <c r="B33" s="7" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="16"/>
+      <c r="B28" s="4" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="27"/>
-      <c r="B34" s="7" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="27"/>
-      <c r="B35" s="7" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="150">
-      <c r="A36" s="27"/>
-      <c r="B36" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="C36" s="7"/>
+    <row r="29" spans="1:1">
+      <c r="A29" s="20"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="20"/>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="21"/>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="21"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="21"/>
+      <c r="E38" s="22"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="21"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="21"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="21"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="21"/>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="21"/>
+      <c r="B43" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A3:A21"/>
-    <mergeCell ref="A24:A29"/>
-    <mergeCell ref="A31:A36"/>
-    <mergeCell ref="B8:B12"/>
-    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A28"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B15:B19"/>
+    <mergeCell ref="B21:B25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85333333333333" defaultRowHeight="12.75"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.14" defaultRowHeight="12.75" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="57.7109375" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="23.2866666666667" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.7133333333333" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.14" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="195">
+    <row r="1" ht="153" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" ht="76.5" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="3" ht="153" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="90">
-      <c r="A2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="180">
-      <c r="A3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Dev-Ops/Documents.xlsx
+++ b/Dev-Ops/Documents.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -1458,6 +1458,30 @@
  - Docker containers don’t use any hardware virtualization. Programs running inside Docker containers interface directly with the host’s Linux kernel</t>
   </si>
   <si>
+    <t>Pid</t>
+  </si>
+  <si>
+    <r>
+      <t>PID namespace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>:
+ - PID namespace is a set of unique numbers that identify processes. Linux provides tools to create multiple PID namespaces. Each namespace has a complete set of possible PIDs. This means that each PID namespace will contain its own PID 1, 2, 3, and so on
+ - Docker creates a new PID name space for each container by default. A container’s PID namespace isolates processes in that container from processes in other containers
+ - Without a PID namespace, the processes running inside a container would share the same ID space as those in other containers or on the host. A process in a container would be able to determine what other processes were running on the host machine
+ - The Process ID (PID) namespace is one of the key isolation features enabled by Docker. It isolates the process ID number space, meaning that processes in different PID namespaces can have the same PID. This is similar to how different computers can have their own process with a PID of 1.
+ - When you create a container, Docker will create a new PID namespace for that container. Docker then forks a new process in that namespace. This process becomes PID 1 within the container's PID namespace and has the usual responsibilities of the init process. All the other processes in the container are descendants of this initial process and are part of its PID namespace.
+ - Within a Docker container, you can see all processes in the same PID namespace. However, you can't see processes in other namespaces, like those running on the host system or in other Docker containers. This provides a significant layer of isolation.</t>
+    </r>
+  </si>
+  <si>
     <t>Containers for isolation</t>
   </si>
   <si>
@@ -1476,6 +1500,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> - </t>
     </r>
     <r>
@@ -1542,24 +1573,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>: Interactive flags, when you started this container, you specified the program to run inside the container</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>PID namespace</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>:
- - PID namespace is a set of unique numbers that identify processes. Linux provides tools to create multiple PID namespaces. Each namespace has a complete set of possible PIDs. This means that each PID namespace will contain its own PID 1, 2, 3, and so on
- - Docker creates a new PID name space for each container by default. A container’s PID namespace isolates processes in that container from processes in other containers
- - Without a PID namespace, the processes running inside a container would share the same ID space as those in other containers or on the host. A process in a container would be able to determine what other processes were running on the host machine</t>
     </r>
   </si>
   <si>
@@ -1607,6 +1620,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Bridge
  - This is default
  - containers running in isolation to connect and communicate with each other. Since containers run in isolation, the bridge network solves the port conflict problem
@@ -1628,6 +1648,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">Host
  - host drivers use the networking provided by the host machine. It removes network isolation between the container and the host machine where Docker is running
  - </t>
@@ -1661,6 +1688,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve"> - Why: 
    + all files created inside a container are stored on a writable container layer
    + data doesn't persist when that container no longer exists, and it can be difficult to get the data out of the container if another process needs it.
@@ -1862,6 +1896,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Volumes</t>
     </r>
     <r>
@@ -1948,6 +1990,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Bind mounts</t>
     </r>
     <r>
@@ -1989,6 +2039,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>tmpfs mounts</t>
     </r>
     <r>
@@ -2047,6 +2105,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t xml:space="preserve">
  - </t>
     </r>
@@ -2170,10 +2235,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -2252,28 +2317,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2288,11 +2331,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2312,6 +2407,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -2328,28 +2430,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -2359,21 +2439,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2430,7 +2495,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2442,7 +2591,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2454,37 +2615,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2496,61 +2657,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2562,49 +2669,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2642,26 +2707,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2677,6 +2729,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2707,149 +2774,147 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2857,7 +2922,7 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2866,7 +2931,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2883,6 +2947,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="33" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2891,15 +2958,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="33" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2910,12 +2968,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="42" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3423,7 +3475,7 @@
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
     </row>
@@ -3434,7 +3486,7 @@
       <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="31" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3442,10 +3494,10 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="31" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3456,7 +3508,7 @@
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="32" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3478,7 +3530,7 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="32" t="s">
         <v>11</v>
       </c>
     </row>
@@ -3489,7 +3541,7 @@
       <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="28" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3500,7 +3552,7 @@
       <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="28" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3511,7 +3563,7 @@
       <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="31" t="s">
         <v>17</v>
       </c>
     </row>
@@ -3525,7 +3577,7 @@
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="30" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3560,7 +3612,7 @@
       <c r="C14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="28" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -3590,7 +3642,7 @@
       <c r="B17" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="28" t="s">
         <v>37</v>
       </c>
     </row>
@@ -3598,7 +3650,7 @@
       <c r="B18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C18" s="28" t="s">
         <v>39</v>
       </c>
     </row>
@@ -3647,7 +3699,7 @@
       <c r="A1" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="32" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3676,26 +3728,26 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="72.5733333333333" style="24" customWidth="1"/>
+    <col min="1" max="1" width="72.5733333333333" style="19" customWidth="1"/>
     <col min="2" max="2" width="139.573333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" spans="1:2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="25"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" ht="127.5" spans="1:2">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="21" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="19" t="s">
         <v>47</v>
       </c>
       <c r="B3" t="s">
@@ -3703,7 +3755,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="19" t="s">
         <v>49</v>
       </c>
       <c r="B4" t="s">
@@ -3711,7 +3763,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="19" t="s">
         <v>51</v>
       </c>
       <c r="B5" t="s">
@@ -3719,200 +3771,200 @@
       </c>
     </row>
     <row r="8" ht="24" spans="1:2">
-      <c r="A8" s="27" t="s">
+      <c r="A8" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="28"/>
-    </row>
-    <row r="9" s="23" customFormat="1" spans="1:2">
-      <c r="A9" s="29" t="s">
+      <c r="B8" s="23"/>
+    </row>
+    <row r="9" s="18" customFormat="1" spans="1:2">
+      <c r="A9" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" s="23" customFormat="1" ht="30" spans="1:2">
-      <c r="A10" s="30" t="s">
+    <row r="10" s="18" customFormat="1" ht="30" spans="1:2">
+      <c r="A10" s="25" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" s="23" customFormat="1" ht="51" spans="1:2">
-      <c r="A11" s="30" t="s">
+    <row r="11" s="18" customFormat="1" ht="51" spans="1:2">
+      <c r="A11" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="26" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" s="23" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A12" s="23" t="s">
+    <row r="12" s="18" customFormat="1" ht="12.75" spans="1:2">
+      <c r="A12" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="18" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" s="23" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A13" s="23" t="s">
+    <row r="13" s="18" customFormat="1" ht="12.75" spans="1:2">
+      <c r="A13" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="18" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" s="23" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A14" s="23" t="s">
+    <row r="14" s="18" customFormat="1" ht="12.75" spans="1:2">
+      <c r="A14" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="18" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" s="23" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A15" s="23" t="s">
+    <row r="15" s="18" customFormat="1" ht="12.75" spans="1:2">
+      <c r="A15" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" s="23" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A16" s="23" t="s">
+    <row r="16" s="18" customFormat="1" ht="12.75" spans="1:2">
+      <c r="A16" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" s="23" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A17" s="23" t="s">
+    <row r="17" s="18" customFormat="1" ht="12.75" spans="1:2">
+      <c r="A17" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" s="23" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A18" s="23" t="s">
+    <row r="18" s="18" customFormat="1" ht="12.75" spans="1:2">
+      <c r="A18" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="18" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" s="23" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A19" s="23" t="s">
+    <row r="19" s="18" customFormat="1" ht="12.75" spans="1:2">
+      <c r="A19" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="18" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" s="23" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A20" s="23" t="s">
+    <row r="20" s="18" customFormat="1" ht="12.75" spans="1:2">
+      <c r="A20" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" s="23" customFormat="1" ht="12.75" spans="1:2">
-      <c r="A21" s="23" t="s">
+    <row r="21" s="18" customFormat="1" ht="12.75" spans="1:2">
+      <c r="A21" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="25" ht="24" spans="1:2">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="25"/>
+      <c r="B25" s="20"/>
     </row>
     <row r="26" ht="255" spans="1:2">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="26" t="s">
+      <c r="B26" s="21" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="27" ht="89.25" spans="1:2">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B27" s="26" t="s">
+      <c r="B27" s="21" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="28" ht="89.25" spans="1:2">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="B28" s="26" t="s">
+      <c r="B28" s="21" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B29" s="26" t="s">
+      <c r="B29" s="21" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="21" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31" ht="25.5" spans="1:2">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B31" s="26" t="s">
+      <c r="B31" s="21" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="24" t="s">
+      <c r="A32" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="26" t="s">
+      <c r="B32" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="33" ht="38.25" spans="1:2">
-      <c r="A33" s="24" t="s">
+      <c r="A33" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B33" s="26" t="s">
+      <c r="B33" s="21" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1" spans="1:2">
-      <c r="A34" s="24" t="s">
+      <c r="A34" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="21" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="21" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="21" t="s">
         <v>100</v>
       </c>
     </row>
@@ -3922,7 +3974,7 @@
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B38" s="26" t="s">
+      <c r="B38" s="21" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3932,12 +3984,12 @@
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1" spans="2:2">
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="21" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="24" t="s">
+      <c r="A41" s="19" t="s">
         <v>105</v>
       </c>
       <c r="B41" t="s">
@@ -4018,258 +4070,260 @@
   <sheetPr/>
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="28.4266666666667" style="3" customWidth="1"/>
-    <col min="2" max="2" width="49.14" style="4" customWidth="1"/>
-    <col min="3" max="3" width="80.8" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="4"/>
+    <col min="2" max="2" width="49.14" style="3" customWidth="1"/>
+    <col min="3" max="3" width="80.8" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" spans="1:2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="2" ht="153" spans="1:3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="3" ht="89.25" spans="1:3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8" t="s">
+    <row r="4" ht="242.25" spans="1:3">
+      <c r="A4" s="6"/>
+      <c r="B4" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="9" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="C5" s="9"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="8"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" ht="63.75" spans="1:3">
-      <c r="A7" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" s="12" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="8"/>
+    </row>
+    <row r="8" ht="63.75" spans="1:3">
+      <c r="A8" s="11" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="8" ht="127.5" spans="1:3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="9" ht="114.75" spans="1:3">
+      <c r="C8" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" ht="127.5" spans="1:3">
       <c r="A9" s="11"/>
       <c r="B9" s="12"/>
-      <c r="C9" s="14" t="s">
-        <v>124</v>
+      <c r="C9" s="8" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="10" ht="127.5" spans="1:3">
       <c r="A10" s="11"/>
-      <c r="B10" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="12" t="s">
         <v>126</v>
       </c>
+      <c r="C10" s="8" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="11" ht="216.75" spans="1:3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="A11" s="13"/>
+      <c r="B11" s="12" t="s">
         <v>128</v>
       </c>
+      <c r="C11" s="8" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="4" t="s">
-        <v>129</v>
+      <c r="A12" s="13"/>
+      <c r="B12" s="3" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="4" t="s">
-        <v>130</v>
+      <c r="A13" s="13"/>
+      <c r="B13" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="4" t="s">
-        <v>131</v>
+      <c r="A14" s="13"/>
+      <c r="B14" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="15" ht="51" spans="1:3">
-      <c r="A15" s="16"/>
-      <c r="B15" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
         <v>133</v>
       </c>
+      <c r="C15" s="8" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="16" ht="102" spans="1:3">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="13" t="s">
-        <v>134</v>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="8" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="17" ht="63.75" spans="1:3">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="13" t="s">
-        <v>135</v>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="8" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="4" t="s">
-        <v>136</v>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="19" ht="63.75" spans="1:3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="9" t="s">
-        <v>137</v>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="4" t="s">
-        <v>138</v>
+      <c r="A20" s="13"/>
+      <c r="B20" s="3" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="21" ht="191.25" spans="1:3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="13" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="15" t="s">
         <v>140</v>
       </c>
+      <c r="C21" s="8" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="22" ht="153" spans="1:3">
-      <c r="A22" s="16"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="14" t="s">
-        <v>141</v>
+      <c r="A22" s="13"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="23" ht="102" spans="1:3">
-      <c r="A23" s="16"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="14" t="s">
-        <v>142</v>
+      <c r="A23" s="13"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="24" ht="38.25" spans="1:3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="14" t="s">
-        <v>143</v>
+      <c r="A24" s="13"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="25" ht="63.75" spans="1:3">
-      <c r="A25" s="16"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="13" t="s">
-        <v>144</v>
+      <c r="A25" s="13"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="8" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="16"/>
+      <c r="A26" s="13"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="19" t="s">
-        <v>145</v>
+      <c r="A27" s="13"/>
+      <c r="B27" s="16" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="4" t="s">
-        <v>146</v>
+      <c r="A28" s="13"/>
+      <c r="B28" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="20"/>
+      <c r="A29" s="4"/>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="20"/>
+      <c r="A30" s="4"/>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="21"/>
+      <c r="A35" s="8"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="21"/>
+      <c r="A36" s="8"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="21"/>
-      <c r="E38" s="22"/>
+      <c r="A38" s="8"/>
+      <c r="E38" s="17"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="21"/>
+      <c r="A39" s="8"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="21"/>
+      <c r="A40" s="8"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="21"/>
+      <c r="A41" s="8"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="21"/>
+      <c r="A42" s="8"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="21"/>
-      <c r="B43" s="9"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A28"/>
-    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A28"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B21:B25"/>
   </mergeCells>
@@ -4328,26 +4382,26 @@
   <sheetData>
     <row r="1" ht="153" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Dev-Ops/Documents.xlsx
+++ b/Dev-Ops/Documents.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>Kiến Trúc về Microservice</t>
   </si>
@@ -1462,6 +1462,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>PID namespace</t>
     </r>
     <r>
@@ -2188,6 +2196,18 @@
     <t>Logging, Log Files</t>
   </si>
   <si>
+    <t>KUBERNETES</t>
+  </si>
+  <si>
+    <t>Kubectl</t>
+  </si>
+  <si>
+    <t>Node</t>
+  </si>
+  <si>
+    <t>Single server in the Kubernetes cluster</t>
+  </si>
+  <si>
     <t>Cho biết thêm về CICD?</t>
   </si>
   <si>
@@ -2235,10 +2255,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -2316,8 +2336,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2328,36 +2349,6 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2376,8 +2367,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2391,9 +2419,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2415,32 +2457,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2495,7 +2515,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2507,7 +2533,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2519,7 +2623,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2531,7 +2653,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2543,85 +2677,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2633,43 +2689,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2680,6 +2700,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2707,6 +2742,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -2718,17 +2768,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2751,30 +2795,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -2783,138 +2803,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4068,10 +4088,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="4"/>
@@ -4293,36 +4313,87 @@
     <row r="30" spans="1:1">
       <c r="A30" s="4"/>
     </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="11"/>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="13"/>
+    </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="8"/>
+      <c r="A35" s="13"/>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="8"/>
+      <c r="A36" s="13"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="13"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="8"/>
+      <c r="A38" s="13"/>
       <c r="E38" s="17"/>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="8"/>
+      <c r="A39" s="13"/>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="8"/>
+      <c r="A40" s="13"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="8"/>
+      <c r="A41" s="13"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="8"/>
+      <c r="A42" s="13"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="8"/>
+      <c r="A43" s="13"/>
       <c r="B43" s="8"/>
     </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="13"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="13"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="13"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="13"/>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="13"/>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="13"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="13"/>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A8:A28"/>
+    <mergeCell ref="A31:A51"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B15:B19"/>
     <mergeCell ref="B21:B25"/>
@@ -4382,26 +4453,26 @@
   <sheetData>
     <row r="1" ht="153" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" ht="76.5" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" ht="153" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
